--- a/pred_ohlcv/54_21/2020-01-15 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2075985.2774</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2121541.2424</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2065472.3624</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2116034.477400001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1984372.732400001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1938552.442400001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1876976.797400001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1838930.057400001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1909016.157400001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1829418.372400001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1806890.697400001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1735803.367400001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1751823.047400001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1680235.102400001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1723780.597400001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1688236.932400001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1724781.827400001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1681228.322400001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1715770.757400001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1791363.622400001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1766833.487400001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1712266.452400001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1725282.442400001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1687736.317400001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1735294.742400001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1676722.787400001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1817896.217400001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1766332.872400001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1839923.277400001</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1777346.402400001</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1842426.352400001</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1915516.142400001</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1974588.712400001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1870460.792400001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1847432.502400002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1870136.393400001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1907181.903400001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1864129.013400001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1792040.453400001</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1919537.081400001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1839438.681400002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1878987.266400001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1810403.011400002</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1867973.736400002</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1822918.386400002</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1864469.431400002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1845946.676400002</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1742819.986400002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1698765.866400002</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1759340.281400002</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1731806.456400002</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1670731.426400002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1778363.651400002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1853455.901400002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1786373.491400002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1721794.156400002</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1836935.606400002</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1783870.416400002</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1783242.096400002</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1921912.451400002</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1975978.871400002</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1930422.906400002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1986491.786400001</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1935929.671400002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2014025.611400001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1960459.806400002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1927919.831400001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1864341.726400001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1875355.256400001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1825794.371400001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1867846.031400001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1791251.936400001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1721289.989400001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1769849.644400002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1802890.234400002</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1752828.734400002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1790875.474400002</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1720789.374400001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1800387.159400001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1659714.344400001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1698762.314400001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1627674.984400001</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1571105.489400001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1570336.544400001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1611386.974400001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1570837.159400001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1642425.104400001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1675379.983500001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1632827.708500001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1597284.043500001</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1677382.443500001</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1606795.728500001</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1663865.838500001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1696906.428500001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1774501.753500001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1729947.018500001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1697907.658500001</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1745466.083500001</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1744833.306500001</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1803405.261500001</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1739326.541500001</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1726310.551500001</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1799900.956500001</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1737324.081500001</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1802404.031500001</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1729314.241500001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1730315.471500001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1762354.831500001</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1793392.961500001</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1738325.311500001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1805908.336500001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1754845.606500001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1794894.806500001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1727792.371500001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1758329.886500001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1791871.091500001</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1757328.656500001</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1794374.166500001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1600636.161500001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2841691.953600002</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2773107.698600002</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2715536.973600002</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2760592.323600002</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2719041.278600002</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2771605.853600002</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2710530.823600002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2710146.351600002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2754200.471600002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2768217.691600001</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2721660.496600002</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2782735.526600001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2706642.046600001</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2671098.381600001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2606519.046600001</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2662087.311600002</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2675103.301600001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2562480.946600001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2669111.941600001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2747207.881600001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2759222.641600001</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2592627.312900001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2942774.293200001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2984825.953200001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2908231.858200001</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2838646.373200001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2887206.028200001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2854165.438200001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2845654.983200001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2907763.374200001</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2986860.544200001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2947812.574200001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3018899.904200001</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2962330.409200001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3003380.839200001</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2920278.749200001</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2955822.414200001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2992367.309200001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3035920.814200001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3035023.712200001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3105610.427200001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-3124133.182200001</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-3055048.312200001</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3072569.837200001</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3121630.107200001</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3074572.297200001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3075136.992200001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3037590.867200001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2990032.442200001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2944476.477200001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2892913.132200001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2756337.350200001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2821417.300200001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2953579.660200001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2875483.720200001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2866472.650200001</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2933054.445200001</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2963591.960200001</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2997133.165200001</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3031174.985200001</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2973604.260200001</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2974217.196200001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2867085.586200001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2891615.721200001</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2892616.951200001</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3024278.696200001</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2968710.431200001</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3028283.616200001</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3029284.846200001</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2984020.128300001</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2798833.230000001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3947343.809500001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4279883.784500001</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4151225.729500001</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4069920.146200001</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4119481.031200001</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4077429.3712</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4223608.9512</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4576193.776500001</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-99889732.05270208</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-99839169.93770209</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-101830845.3945456</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-101962006.5245456</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-101812322.6395455</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-101884985.2649456</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-101213004.9835531</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-101174457.6285531</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-101563789.5533531</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-101454904.3124531</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-101558676.0423531</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-101461056.1173531</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-101513620.6923531</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-101685679.8329531</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-101686500.8419531</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-101733058.0369531</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-101671983.0069531</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-101670981.7769531</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-101673484.8519531</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-101729053.1169531</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-101557333.3714531</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-101620911.4764531</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-101749569.5314531</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-101837894.3764531</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-101953887.9241531</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-101648671.1484531</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 CON ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2075985.2774</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-2121541.2424</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2065472.3624</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2116034.477400001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1984372.732400001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2016912.707400001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1888254.652400001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1938552.442400001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1896500.782400001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1826915.297400001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1876976.797400001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1838930.057400001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1909016.157400001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1829418.372400001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1767842.727400001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1806890.697400001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1735803.367400001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1792372.862400001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1751823.047400001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1680235.102400001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1723780.597400001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1688236.932400001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1724781.827400001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1681228.322400001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1751815.037400001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1715770.757400001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1791363.622400001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1722278.752400001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1766833.487400001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1712266.452400001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1772340.252400001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1725282.442400001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1687736.317400001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1735294.742400001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1676722.787400001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1740801.507400001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1817896.217400001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1766332.872400001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1839923.277400001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1777346.402400001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1842426.352400001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1915516.142400001</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1974588.712400001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1870460.792400001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1902500.152400001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1847432.502400002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1915015.527400001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1874141.313400001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1904678.828400001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1870136.393400001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1907181.903400001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1864129.013400001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1792040.453400001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1919537.081400001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1839438.681400002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1878987.266400001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1810403.011400002</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1867973.736400002</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1822918.386400002</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1864469.431400002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1811904.856400002</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1845946.676400002</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1742819.986400002</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1698765.866400002</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1759340.281400002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1685249.261400002</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1731806.456400002</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1670731.426400002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-1778363.651400002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1853455.901400002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1786373.491400002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1721794.156400002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-1836935.606400002</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-1783870.416400002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1783242.096400002</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1921912.451400002</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1975978.871400002</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-1930422.906400002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-1986491.786400001</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1935929.671400002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2014025.611400001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-1960459.806400002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1927919.831400001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1864341.726400001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1927419.216400001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1875355.256400001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1825794.371400001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1867846.031400001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1791251.936400001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1721289.989400001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1769849.644400002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1802890.234400002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1752828.734400002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1790875.474400002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1720789.374400001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1800387.159400001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1659714.344400001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1698762.314400001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1627674.984400001</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1571105.489400001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1570336.544400001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1611386.974400001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1570837.159400001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-1642425.104400001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1675379.983500001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1632827.708500001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1597284.043500001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1677382.443500001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1606795.728500001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1663865.838500001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1627821.558500001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1696906.428500001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1774501.753500001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1729947.018500001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-1784514.053500001</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1735453.783500001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1697907.658500001</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1745466.083500001</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1744833.306500001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1803405.261500001</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1739326.541500001</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1777873.896500001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1726310.551500001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1799900.956500001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1737324.081500001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1802404.031500001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1729314.241500001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1788386.811500001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1730315.471500001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1762354.831500001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1793392.961500001</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1738325.311500001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1805908.336500001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1754845.606500001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1794894.806500001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1727792.371500001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1758329.886500001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1791871.091500001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1757328.656500001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1794374.166500001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1679232.716500001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1600636.161500001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2841067.185600001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2841691.953600002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2773107.698600002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2715536.973600002</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-2760592.323600002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-2719041.278600002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2771605.853600002</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2675487.773600002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-2710530.823600002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2710146.351600002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2754200.471600002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2693626.056600002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2768217.691600001</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2721660.496600002</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2782735.526600001</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2706642.046600001</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2738180.791600002</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2671098.381600001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2606519.046600001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2662087.311600002</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2602514.126600001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-2675103.301600001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-2609022.121600001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2562480.946600001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-2669111.941600001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2747207.881600001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2693642.076600001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2759222.641600001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2592627.312900001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2942774.293200001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2984825.953200001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2908231.858200001</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2838646.373200001</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2887206.028200001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2854165.438200001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2766057.198200001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2845654.983200001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2907763.374200001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2986860.544200001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2947812.574200001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3018899.904200001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2962330.409200001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3003380.839200001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2962831.024200001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2920278.749200001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2955822.414200001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2992367.309200001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-3035920.814200001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-3035023.712200001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-3105610.427200001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-3048540.317200001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-3124133.182200001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-3055048.312200001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-3132643.637200001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-3072569.837200001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-3121630.107200001</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-3074572.297200001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-3075136.992200001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-3037590.867200001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2990032.442200001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2867381.767200002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2944476.477200001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2892913.132200001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2756337.350200001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2821417.300200001</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2953579.660200001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2907523.080200001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2875483.720200001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2906521.850200001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2866472.650200001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2933054.445200001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2963591.960200001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2997133.165200001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2962590.730200001</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-3031174.985200001</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2973604.260200001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2974217.196200001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2929161.846200001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2867085.586200001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2969211.046200001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2925156.926200001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-2999247.946200001</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2891615.721200001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2967709.201200001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2892616.951200001</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-3024278.696200001</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2968710.431200001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-3028283.616200001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2975218.426200001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-3029284.846200001</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2983728.881200001</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2984020.128300001</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2984520.128300001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2798833.230000001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2913364.598700001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3313861.692500001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3947343.809500001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-3979883.784500001</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-4279883.784500001</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-4151225.729500001</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4069920.146200001</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4119481.031200001</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4077429.3712</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4223608.9512</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4538647.6515</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-4486583.691500001</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-4565680.861500001</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-4494593.531500001</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-4576193.776500001</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-99889732.05270208</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-99839169.93770209</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-101830845.3945456</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-101962006.5245456</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-101812322.6395455</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-101826339.8595456</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-101923032.0049456</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-101956573.2099456</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-101884985.2649456</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-101841932.3749456</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-101914020.9349456</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-101867463.7399456</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-101896499.4099456</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-101846459.1446456</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-101213004.9835531</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-101174457.6285531</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-101563789.5533531</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-101454904.3124531</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-101558676.0423531</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-101461056.1173531</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-101513620.6923531</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-101685679.8329531</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-101686500.8419531</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-101733058.0369531</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-101671983.0069531</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-101595889.5269531</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-101670981.7769531</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-101673484.8519531</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-101729053.1169531</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-101557333.3714531</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-101620911.4764531</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-101749569.5314531</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-101837894.3764531</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-101953887.9241531</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-101648671.1484531</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
